--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Visionfolder\Batch19_AutomationTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84091378-73B6-4D9E-8570-3E1D425B8B8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08824E1F-3CAC-4D86-80B9-735EFA28DDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6108" yWindow="3744" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Test@gmail.com</t>
-  </si>
-  <si>
-    <t>12345678</t>
   </si>
 </sst>
 </file>
@@ -363,7 +360,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -376,8 +373,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="2">
+        <v>12345678</v>
       </c>
     </row>
   </sheetData>
